--- a/Setting/SkillData.xlsx
+++ b/Setting/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63569\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE3E51E-5B7B-4044-8ECC-72233E711494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7A8928-188A-487E-A05D-4F5FAE6EFE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>63569</author>
   </authors>
   <commentList>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{E5C91E09-D86F-49DB-82F6-C6B9C41410D5}">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{E5C91E09-D86F-49DB-82F6-C6B9C41410D5}">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{8A3F0440-472F-4FF7-B0AF-9EEFF4C8D861}">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{8A3F0440-472F-4FF7-B0AF-9EEFF4C8D861}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>技能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,120 @@
   </si>
   <si>
     <t>斩击：瞬间移动到敌人背后，进行一次攻击。突刺：向前突刺到第一个敌人所在的位置，并且赋予造成伤害的人一层虚弱。打击：击退面前大范围的敌人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedRainSunFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七灵灾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个巨大的火球，出现在场地中心，落地时，击退所有的人，并且持续造成高额魔法伤害。最后火球爆炸，红雨出现在火球中心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedRainChop</t>
+  </si>
+  <si>
+    <t>RedRainStrike</t>
+  </si>
+  <si>
+    <t>RedRainBlink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动到目标背后，如果超出范围只会在范围内出现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedRainPhantomSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续三次出现剑影在玩家的位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedRainFireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续三颗火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红雨冲斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红雨追击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红雨幻影剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红雨闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红雨火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红雨后退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedRainGoBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedRainChop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红雨半球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedRainStrike</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -555,13 +669,13 @@
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="51.25" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="17.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -600,11 +714,14 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -623,11 +740,14 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -646,11 +766,14 @@
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -669,11 +792,14 @@
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -692,11 +818,14 @@
       <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -715,8 +844,11 @@
       <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -735,8 +867,11 @@
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -755,8 +890,11 @@
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -775,14 +913,17 @@
       <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1">
         <v>100</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -801,14 +942,17 @@
       <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1">
         <v>60</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -827,8 +971,183 @@
       <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="1">
         <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1">
+        <v>999</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Setting/SkillData.xlsx
+++ b/Setting/SkillData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63569\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectMercury\PorjectMercury\Setting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7A8928-188A-487E-A05D-4F5FAE6EFE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56954BE7-C8BD-44D8-A056-508EBC57B6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8565" yWindow="1305" windowWidth="19590" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1078,7 +1078,7 @@
         <v>1.2</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>50</v>
@@ -1107,7 +1107,7 @@
         <v>1.2</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>52</v>

--- a/Setting/SkillData.xlsx
+++ b/Setting/SkillData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectMercury\PorjectMercury\Setting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63569\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56954BE7-C8BD-44D8-A056-508EBC57B6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7A8928-188A-487E-A05D-4F5FAE6EFE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="1305" windowWidth="19590" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1078,7 +1078,7 @@
         <v>1.2</v>
       </c>
       <c r="E17" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>50</v>
@@ -1107,7 +1107,7 @@
         <v>1.2</v>
       </c>
       <c r="E18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>52</v>
